--- a/output/assets.xlsx
+++ b/output/assets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -38,49 +38,22 @@
     <t>User</t>
   </si>
   <si>
-    <t>A003</t>
+    <t>A001</t>
   </si>
   <si>
-    <t>Desk</t>
+    <t>Computer</t>
   </si>
   <si>
-    <t>Office Management</t>
+    <t>2024-03-18</t>
   </si>
   <si>
-    <t>2024-03-17</t>
+    <t>A009</t>
   </si>
   <si>
-    <t>Bob</t>
+    <t>Scanner</t>
   </si>
   <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>A019</t>
-  </si>
-  <si>
-    <t>Air Purifier</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>A020</t>
-  </si>
-  <si>
-    <t>Desk Lamp</t>
-  </si>
-  <si>
-    <t>Ava</t>
+    <t>2024-03-14</t>
   </si>
   <si>
     <t>Total</t>
@@ -128,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>8</v>
@@ -170,106 +143,54 @@
       <c r="C2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="F2" t="n" s="0">
-        <v>20000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>12</v>
+      <c r="H2" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="F3" t="n" s="0">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>15</v>
+      <c r="H3" t="n" s="0">
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
+      <c r="A4" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>300.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>50000.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>70400.0</v>
+        <v>1900.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/assets.xlsx
+++ b/output/assets.xlsx
@@ -38,22 +38,22 @@
     <t>User</t>
   </si>
   <si>
-    <t>A001</t>
+    <t>A010</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>A009</t>
-  </si>
-  <si>
-    <t>Scanner</t>
+    <t>Office Chair</t>
   </si>
   <si>
     <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>A034</t>
+  </si>
+  <si>
+    <t>Beads</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
   </si>
   <si>
     <t>Total</t>
@@ -135,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>8</v>
@@ -144,24 +144,24 @@
         <v>9</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1500.0</v>
+        <v>250.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
@@ -170,19 +170,19 @@
         <v>12</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>400.0</v>
+        <v>290.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1900.0</v>
+        <v>540.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/assets.xlsx
+++ b/output/assets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -38,22 +38,13 @@
     <t>User</t>
   </si>
   <si>
-    <t>A010</t>
+    <t>A012</t>
   </si>
   <si>
-    <t>Office Chair</t>
+    <t>Laptop</t>
   </si>
   <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>A034</t>
-  </si>
-  <si>
-    <t>Beads</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
+    <t>2024-03-13</t>
   </si>
   <si>
     <t>Total</t>
@@ -101,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,7 +126,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>8</v>
@@ -144,53 +135,27 @@
         <v>9</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>250.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="F3" t="n" s="0">
-        <v>290.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>540.0</v>
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
